--- a/_git.xlsx
+++ b/_git.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="1604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="1638">
   <si>
     <t>Limon</t>
   </si>
@@ -5514,6 +5514,110 @@
   </si>
   <si>
     <t>Cross-Qt compatibility module for IDAPython</t>
+  </si>
+  <si>
+    <t>Application Whitelist Bypass Techniques</t>
+  </si>
+  <si>
+    <t>A Catalog of Application Whitelisting Bypass Techniques</t>
+  </si>
+  <si>
+    <t>AutoSetToLocalAnsiCodePage</t>
+  </si>
+  <si>
+    <t>ida</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeeLogger</t>
+  </si>
+  <si>
+    <t>Generate gmail emailing keyloggers to windows, powered by python and compiled by pyinstaller</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a pure python post-exploitation data mining tool &amp; remote administration tool for macOS</t>
+  </si>
+  <si>
+    <t>BotBuilder</t>
+  </si>
+  <si>
+    <t>one of three main components of the Microsoft Bot Framework.</t>
+  </si>
+  <si>
+    <t>botpress</t>
+  </si>
+  <si>
+    <t>bot creation tool written in Javascript</t>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>a fast, simple and lightweight WSGI_ micro web-framework for Python_</t>
+  </si>
+  <si>
+    <t>BTG</t>
+  </si>
+  <si>
+    <t>allows you to qualify one or more potential malicious markers of different type (URL, MD5, SHA1, SHA256, SHA512, IPv4, IPv6, domain etc..)</t>
+  </si>
+  <si>
+    <t>crystal</t>
+  </si>
+  <si>
+    <t>a programming language</t>
+  </si>
+  <si>
+    <t>design-patterns-for-humans</t>
+  </si>
+  <si>
+    <t>Dr0p1t-Framework</t>
+  </si>
+  <si>
+    <t>let you create a dropper that bypass most AVs, some sandboxes and have some tricks</t>
+  </si>
+  <si>
+    <t>EggShell</t>
+  </si>
+  <si>
+    <t>an iOS and OS X surveillance tool written in python</t>
+  </si>
+  <si>
+    <t>Empire</t>
+  </si>
+  <si>
+    <t>a pure PowerShell post-exploitation agent built on cryptologically-secure communications and a flexible architecture</t>
+  </si>
+  <si>
+    <t>evilpass</t>
+  </si>
+  <si>
+    <t>password strength checker</t>
+  </si>
+  <si>
+    <t>Fakenet1.0c</t>
+  </si>
+  <si>
+    <t>firechat</t>
+  </si>
+  <si>
+    <t>a simple, extensible chat widget powered by [Firebase]</t>
+  </si>
+  <si>
+    <t>goaccess</t>
+  </si>
+  <si>
+    <t>real-time web log analyzer</t>
+  </si>
+  <si>
+    <t>idapython_virtualenv</t>
   </si>
 </sst>
 </file>
@@ -5894,10 +5998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C675"/>
+  <dimension ref="A1:C693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A663" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B670" sqref="B670"/>
+    <sheetView tabSelected="1" topLeftCell="A686" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A694" sqref="A694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12746,6 +12850,147 @@
         <v>1603</v>
       </c>
     </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="2" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="2" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>1607</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_git.xlsx
+++ b/_git.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="18600" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="xx" sheetId="1" r:id="rId1"/>
@@ -10402,8 +10402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D319" sqref="D319"/>
+    <sheetView tabSelected="1" topLeftCell="A376" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A387" sqref="A387:G387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19044,25 +19044,25 @@
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="3" t="s">
         <v>1679</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="B387" s="3" t="s">
         <v>1680</v>
       </c>
-      <c r="C387" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="D387" s="1" t="s">
+      <c r="C387" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="D387" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E387" s="1" t="s">
+      <c r="E387" s="3" t="s">
         <v>2654</v>
       </c>
-      <c r="F387" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="G387" s="1" t="s">
+      <c r="F387" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="G387" s="3" t="s">
         <v>530</v>
       </c>
     </row>
